--- a/DecimalToBinary-BinaryToDecimal.xlsx
+++ b/DecimalToBinary-BinaryToDecimal.xlsx
@@ -189,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -294,46 +294,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,58 +716,61 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="13" width="4.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="G1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="G1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="3">
         <v>84</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="3" t="str">
         <f>CONCATENATE(B8, C8, C7, C6, C5, C4, C3)</f>
         <v>1010100</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="9">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <v>1</v>
       </c>
-      <c r="L2" s="9">
-        <v>0</v>
-      </c>
-      <c r="M2" s="10">
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -736,7 +816,7 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="14">
         <v>2</v>
       </c>
       <c r="H4" s="1">
@@ -768,7 +848,7 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <f>SUM(G5:M5)</f>
         <v>84</v>
       </c>
@@ -794,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -805,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -815,39 +895,39 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:13" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
